--- a/data/trans_bre/P5_7-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P5_7-Edad-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>3,06</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,02%</t>
+          <t>0,71%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,93</t>
+          <t>0,0; 15,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 2,9</t>
+          <t>-4,64; 9,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,62</t>
+          <t>0,0; 17,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 3,0</t>
+          <t>-4,65; 10,58</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,0</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>12,8</t>
+          <t>17,89</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>14,97%</t>
+          <t>21,79%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,18; 12,46</t>
+          <t>0,0; 10,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,07; 37,87</t>
+          <t>0,0; 57,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,19; 14,23</t>
+          <t>0,0; 11,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,08; 61,9</t>
+          <t>0,0; 133,74</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,48</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,16</t>
+          <t>-1,34</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,51%</t>
+          <t>-0,39%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,2%</t>
+          <t>-1,38%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 2,11</t>
+          <t>-5,54; 7,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 1,71</t>
+          <t>-6,87; 5,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 2,18</t>
+          <t>-5,72; 7,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 1,75</t>
+          <t>-6,96; 5,64</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,07</t>
+          <t>-1,38</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,06</t>
+          <t>-1,39</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>-1,41%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>-1,43%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 7,21</t>
+          <t>-6,16; 4,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 7,05</t>
+          <t>-6,43; 4,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 7,93</t>
+          <t>-6,34; 4,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 7,69</t>
+          <t>-6,56; 4,61</t>
         </is>
       </c>
     </row>
@@ -821,22 +821,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,43</t>
+          <t>-2,01</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,53</t>
+          <t>-2,27</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,47%</t>
+          <t>-2,01%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,6%</t>
+          <t>-2,27%</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,64; 1,79</t>
+          <t>-10,22; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,34; 2,04</t>
+          <t>-11,41; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,8; 1,79</t>
+          <t>-10,22; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,55; 2,13</t>
+          <t>-11,41; 0,0</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>-2,02</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>-1,98</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,51%</t>
+          <t>-2,02%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>-1,98%</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 5,14</t>
+          <t>-10,15; 0,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 5,17</t>
+          <t>-10,03; 0,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 5,5</t>
+          <t>-10,15; 0,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 5,53</t>
+          <t>-10,03; 0,0</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,7</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>-0,43%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>2,14%</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,29 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 2,43</t>
+          <t>-2,41; 1,77</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 7,26</t>
+          <t>-1,76; 11,72</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 2,53</t>
+          <t>-2,45; 1,81</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 8,01</t>
+          <t>-1,78; 13,89</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P5_7-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P5_7-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>3,06</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,69</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>3,16%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,71%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>3.063925701395465</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.5147098570503217</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0.03160769325109312</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.005298862017968139</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 15,16</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-4,64; 9,53</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 17,87</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-4,65; 10,58</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-4.869544077249528</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.04871824772228232</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>15.15821378676124</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>8.96864086417707</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.1786648781353943</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.1012355057682593</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>1,89</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>17,89</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,93%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>21,79%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 10,14</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 57,34</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 11,28</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 133,74</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>1.889278520452375</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>16.32099006411237</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.01925659593529968</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.1950428198973319</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,37</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-1,34</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,39%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-1,38%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-5,54; 7,02</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-6,87; 5,27</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-5,72; 7,33</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-6,96; 5,64</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>10.14289800506057</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>49.53724406339048</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.1128428631825626</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.9803498345841207</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,179 +716,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-1,38</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-1,39</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-1,41%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-1,43%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-0.3716262235138101</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-1.992142067761071</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>-0.003851332918608213</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>-0.02064029505750579</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-6,16; 4,21</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-6,43; 4,33</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-6,34; 4,48</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-6,56; 4,61</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-5.54037019894004</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-8.67830415440595</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.05715158811184541</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.0870895752652498</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>7.015038838762318</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>4.903050053492414</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>0.0733143909933648</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.05355981915510913</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-2,01</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-2,27</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-2,01%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-2,27%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-10,22; 0,0</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-11,41; 0,0</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-10,22; 0,0</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-11,41; 0,0</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-1.378686321651168</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-1.144819401651798</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.01412949134912585</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>-0.01174171841337274</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-2,02</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-1,98</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-2,02%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-1,98%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-6.161232752811787</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-5.797768189278269</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.0634139949816644</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.05961131404226082</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-10,15; 0,0</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-10,03; 0,0</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-10,15; 0,0</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-10,03; 0,0</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>4.211946742469722</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>4.383564126622725</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.04478713952286389</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.04653228758404995</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -939,57 +844,189 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-0,42</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>2,04</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-0,43%</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>2,14%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-2.014791165568042</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-2.238736244706174</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>-0.02014791165568042</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>-0.02238736244706174</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-2,41; 1,77</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-1,76; 11,72</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-2,45; 1,81</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-1,78; 13,89</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-10.224066712544</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-11.36192006812822</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>-0.10224066712544</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>-0.1136192006812822</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>-2.019825409520548</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-2.039395646338493</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.02019825409520548</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>-0.02039395646338493</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-10.15429223327321</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-10.3011639394066</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.1015429223327321</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>-0.103011639394066</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-0.4245318965122369</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>1.711624216403274</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>-0.004326011759723281</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>0.01796754762576601</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-2.410331627590883</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-1.901459737096868</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>-0.02454186625224658</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>-0.0191718338834895</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>1.774670179266063</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>9.851421452967006</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>0.01814016593059991</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>0.113868744889363</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -997,16 +1034,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
